--- a/ePICreator/data/Flucelvax.xlsx
+++ b/ePICreator/data/Flucelvax.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFE3ACC-BC07-CC41-90EA-62111CE411FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712CE59E-BED5-1746-A0EA-F0F81177F29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AdministrableProductDefinition" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="177">
   <si>
     <t>id</t>
   </si>
@@ -472,9 +472,6 @@
   </si>
   <si>
     <t>flucelvax</t>
-  </si>
-  <si>
-    <t>flucelvax-1</t>
   </si>
   <si>
     <t>2023-04-22T15:15:46Z</t>
@@ -883,6 +880,9 @@
   </si>
   <si>
     <t>MedicinalProduct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU/1/18/1326/001 </t>
   </si>
 </sst>
 </file>
@@ -1519,7 +1519,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1550,7 +1550,7 @@
         <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="D2" t="s">
         <v>143</v>
@@ -1564,13 +1564,13 @@
         <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="D3" t="s">
         <v>143</v>
       </c>
       <c r="E3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -1644,8 +1644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1711,78 +1711,84 @@
     <row r="2" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>149</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>150</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H2" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>157</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="409.5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>150</v>
-      </c>
       <c r="E3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H3" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="O3" s="5" t="s">
         <v>172</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -1883,7 +1889,7 @@
         <v>15</v>
       </c>
       <c r="L2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -1913,7 +1919,7 @@
         <v>15</v>
       </c>
       <c r="L3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -1943,7 +1949,7 @@
         <v>15</v>
       </c>
       <c r="L4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -1973,7 +1979,7 @@
         <v>15</v>
       </c>
       <c r="L5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -2018,7 +2024,7 @@
         <v>7</v>
       </c>
       <c r="K7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L7" t="s">
         <v>11</v>
@@ -2042,7 +2048,7 @@
         <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L8" t="s">
         <v>11</v>
@@ -2066,7 +2072,7 @@
         <v>7</v>
       </c>
       <c r="K9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L9" t="s">
         <v>11</v>
@@ -2090,7 +2096,7 @@
         <v>7</v>
       </c>
       <c r="K10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L10" t="s">
         <v>11</v>
@@ -2114,7 +2120,7 @@
         <v>7</v>
       </c>
       <c r="K11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L11" t="s">
         <v>11</v>
@@ -2262,7 +2268,7 @@
         <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K1" t="s">
         <v>81</v>
@@ -2298,10 +2304,10 @@
         <v>128</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E2" t="s">
         <v>131</v>
@@ -2310,7 +2316,7 @@
         <v>132</v>
       </c>
       <c r="G2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H2" t="s">
         <v>91</v>
@@ -2552,7 +2558,7 @@
         <v>89</v>
       </c>
       <c r="H2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I2" t="s">
         <v>106</v>
@@ -2632,7 +2638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -2670,7 +2676,7 @@
         <v>65</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="238" x14ac:dyDescent="0.2">
@@ -2697,13 +2703,13 @@
         <v>100000072062</v>
       </c>
       <c r="I2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J2" t="s">
         <v>163</v>
       </c>
-      <c r="J2" t="s">
-        <v>164</v>
-      </c>
       <c r="K2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
